--- a/biology/Botanique/Thallophyte/Thallophyte.xlsx
+++ b/biology/Botanique/Thallophyte/Thallophyte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les thallophytes sont un groupe polyphylétique d'organismes non mobiles traditionnellement décrites comme « plantes inférieures » non vascularisées, sans feuille, ni tige, ni racine, possédant un corps indifférencié, ou un appareil végétatif nommé : thalle.
 Ils sont issus d'une division ancienne du règne des Plantae, les thallophyta (ou thallobionta), qui inclut les champignons (ou mycètes), les algues, les lichens, et parfois les mousses et hépatiques à thalles, et de temps en temps les bactéries (notamment les cyanobactéries considérées comme des algues bleues). Les individus de cette famille sont parfois mentionnés comme des « plantes thalloïdes », par opposition aux plantes vasculaires.
